--- a/instructionTxt.xlsx
+++ b/instructionTxt.xlsx
@@ -1,35 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karolis\Desktop\LoadV2\Load\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karolis\Desktop\Load_scanner_v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6DECD9-A106-433B-A8B9-C941EB6728CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E4492E3-8738-411A-A1BF-275C13A3B3BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3575DBD2-2ABB-4154-8B61-BB5F0D4F558A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="instructionTxt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -39,29 +25,29 @@
     <t>instructions</t>
   </si>
   <si>
-    <t>Now we will see an example of a trial. (Press 'space')</t>
+    <t>On each trial your task will be to remember images that are presented to you. The images will consist of either faces or scenes and there can be either one to four images on a trial.</t>
   </si>
   <si>
-    <t>At the end of a trial you will have to indicate whether a test image presented after a short delay was part of the items that you remembered. (Press 'space')</t>
+    <t xml:space="preserve">At the end of a trial you will have to indicate whether a test image presented after a short delay was part of the items that you remembered. </t>
   </si>
   <si>
-    <t>On each trial, your task will be to remember images that are presented to you. The images will consist of either faces or scenes and there can be anywhere from one to four images per trial.  (Press 'space')</t>
+    <t>If the test image was part of the memory images, then you have to press the left button (index finger)</t>
   </si>
   <si>
-    <t>If the image is NOT part of the memorized images, then NO response is needed (Press 'space')</t>
+    <t>If the image is NOT part of the memorized images, then press the right button (middle finger).</t>
   </si>
   <si>
-    <t xml:space="preserve">Possible answers: if the test image was part of the memory images, then you have to either press the left arrow key if "&lt;" is presented with the test image or right arrow key if "&gt;" is presented (Press 'space') </t>
+    <t xml:space="preserve">During the short remembering period, try to actively keep the images in your mind's eye. </t>
   </si>
   <si>
-    <t>During the short remembering period, try to actively keep the images in your mind's eye. (Press 'space')</t>
+    <t>Now we will see an example of a trial.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +55,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -86,15 +372,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -405,17 +880,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A931DA07-6E87-4E31-8997-58A0688CD61F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="172.5546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -424,7 +894,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -434,7 +904,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -444,16 +914,15 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>